--- a/1. 数据盘点统计/数据定标.xlsx
+++ b/1. 数据盘点统计/数据定标.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,11 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -37,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,14 +56,31 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,7 +453,29 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="13" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="13" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="13" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="13" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="13" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="13" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="13" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="13" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="13" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="13" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="13" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="13" bestFit="1" customWidth="1" min="20" max="20"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -536,1899 +580,1899 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>付款标识</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>FKBS</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>LEVEL2</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>测试2</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>付款类型</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>FKLX</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="2" t="inlineStr">
         <is>
           <t>测试2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>转出账号</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>ZCZH</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>测试2</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr"/>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>转入账号</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>ZRZH</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="2" t="inlineStr">
         <is>
           <t>测试2</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>JE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="2" t="inlineStr">
         <is>
           <t>测试3</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>收款名称</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>SKMC</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>唯一</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="2" t="inlineStr">
         <is>
           <t>测试3</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr"/>
+      <c r="B8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>收款帐号</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>SKZH</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>唯一</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr"/>
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>测试3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr"/>
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>收款对象</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>SKDX</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>非空</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>测试3</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>收款银行</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>SKYX</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>非空</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="2" t="inlineStr">
         <is>
           <t>测试3</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>贷款金额</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>DKJE</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>区别</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>类型3</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>非空</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr">
         <is>
           <t>LEVEL3</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="2" t="inlineStr">
         <is>
           <t>测试3</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>编号</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>BH</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>类型1,
 类型2</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
         <is>
           <t>非空</t>
         </is>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr"/>
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr"/>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>申请人</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>SQR</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t>非空</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
+      <c r="P13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>申请人部门</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>SQRBM</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>非空</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr"/>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr"/>
+      <c r="B15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>申请人公司</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>SQRGS</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr">
         <is>
           <t>非空</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>申请 人名称</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>SQRMC</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr"/>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>RQ</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr"/>
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>产品</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>CP</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>系统</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>XT</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T19" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>类型</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>LX</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T20" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr"/>
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>流水</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>LS</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>基本</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>类型1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>合同</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>HT</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr"/>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr"/>
+      <c r="S22" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T22" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr"/>
+      <c r="B23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>客户</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>KH</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T23" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr"/>
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>申请人</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>SQR</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
         <is>
           <t>LEVEL1</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T24" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr"/>
+      <c r="B25" s="2" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>经销商</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>JXS</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr">
         <is>
           <t>LEVEL2</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T25" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>账号</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>ZH</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr">
         <is>
           <t>唯一</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
+      <c r="P26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
         <is>
           <t>LEVEL2</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T26" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr"/>
+      <c r="B27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>贷款金额</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>DKJE</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O27" s="2" t="inlineStr">
         <is>
           <t>唯一</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="P27" s="2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
         <is>
           <t>LEVEL2</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T27" s="2" t="inlineStr">
         <is>
           <t>测试1</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr"/>
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>贷款账号</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>DKZH</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr">
         <is>
           <t>唯一</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
+      <c r="P28" s="2" t="inlineStr"/>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
         <is>
           <t>LEVEL2</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T28" s="2" t="inlineStr">
         <is>
           <t>测试2</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr"/>
+      <c r="B29" s="2" t="inlineStr"/>
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>结算方式</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>JSFS</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr">
         <is>
           <t>唯一</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
         <is>
           <t>LEVEL2</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>测试2</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr"/>
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>转款类型</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>ZKLX</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>明细</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>张小小</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>系统维护</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>张小小</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>系统维护</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr">
         <is>
           <t>类型2</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr">
         <is>
           <t>唯一</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
         <is>
           <t>LEVEL2</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>测试2</t>
         </is>
